--- a/5/2/3/Promedios 1990 a 2021 - Trimestral.xlsx
+++ b/5/2/3/Promedios 1990 a 2021 - Trimestral.xlsx
@@ -6339,11 +6339,38 @@
       <c r="B127">
         <v>161376</v>
       </c>
+      <c r="C127">
+        <v>160465</v>
+      </c>
+      <c r="D127">
+        <v>634</v>
+      </c>
+      <c r="E127">
+        <v>112</v>
+      </c>
       <c r="F127">
         <v>165</v>
       </c>
       <c r="G127">
         <v>161376</v>
+      </c>
+      <c r="H127">
+        <v>66813</v>
+      </c>
+      <c r="I127">
+        <v>12990</v>
+      </c>
+      <c r="J127">
+        <v>53823</v>
+      </c>
+      <c r="K127">
+        <v>94563</v>
+      </c>
+      <c r="L127">
+        <v>9979</v>
+      </c>
+      <c r="M127">
+        <v>84043</v>
       </c>
       <c r="N127">
         <v>542</v>

--- a/5/2/3/Promedios 1990 a 2021 - Trimestral.xlsx
+++ b/5/2/3/Promedios 1990 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="138">
   <si>
     <t>Serie</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -782,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6376,6 +6379,23 @@
         <v>542</v>
       </c>
     </row>
+    <row r="128" spans="1:14">
+      <c r="A128" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128">
+        <v>165069</v>
+      </c>
+      <c r="F128">
+        <v>129</v>
+      </c>
+      <c r="G128">
+        <v>165069</v>
+      </c>
+      <c r="N128">
+        <v>515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/2/3/Promedios 1990 a 2021 - Trimestral.xlsx
+++ b/5/2/3/Promedios 1990 a 2021 - Trimestral.xlsx
@@ -6384,16 +6384,16 @@
         <v>137</v>
       </c>
       <c r="B128">
-        <v>165069</v>
+        <v>165153</v>
       </c>
       <c r="F128">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="G128">
-        <v>165069</v>
+        <v>165153</v>
       </c>
       <c r="N128">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
